--- a/DSA Cracker Sheer.xlsx
+++ b/DSA Cracker Sheer.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competitive Programming\DSA-Cracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A407AD1-A91E-460B-93FF-CF5560C267FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1406,138 +1415,169 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF0563C1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1727,37 +1767,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.44"/>
-    <col customWidth="1" min="2" max="2" width="123.0"/>
-    <col customWidth="1" min="3" max="3" width="27.44"/>
-    <col customWidth="1" min="4" max="26" width="10.56"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1768,23 +1810,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+      <c r="C6" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1806,7 +1848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1817,7 +1859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1839,7 +1881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1861,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +1914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1883,7 +1925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1894,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1905,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1916,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1938,7 +1980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +2002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +2035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2015,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2037,7 +2079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2048,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2070,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2081,7 +2123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2103,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2169,20 +2211,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
@@ -2193,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
@@ -2204,7 +2246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>43</v>
       </c>
@@ -2215,7 +2257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>43</v>
       </c>
@@ -2226,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>43</v>
       </c>
@@ -2237,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>43</v>
       </c>
@@ -2248,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>43</v>
       </c>
@@ -2259,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>43</v>
       </c>
@@ -2270,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>43</v>
       </c>
@@ -2281,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>43</v>
       </c>
@@ -2292,13 +2334,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -2309,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>54</v>
       </c>
@@ -2320,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
@@ -2331,7 +2373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2342,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2353,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2364,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2375,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2386,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2397,7 +2439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2408,7 +2450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2419,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2430,7 +2472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2441,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2452,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2463,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2474,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2485,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2496,7 +2538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2507,7 +2549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2518,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2529,7 +2571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2540,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2551,7 +2593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2562,7 +2604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2573,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2584,7 +2626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2595,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2606,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2617,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2628,7 +2670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2639,7 +2681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2650,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2661,7 +2703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2672,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2683,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2694,7 +2736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2705,7 +2747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2716,7 +2758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2727,7 +2769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2738,7 +2780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2749,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2760,7 +2802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2771,13 +2813,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
       <c r="B100" s="9"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2788,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2799,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2810,7 +2852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2821,7 +2863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2832,7 +2874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2843,7 +2885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2854,7 +2896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2865,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2876,7 +2918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -2887,7 +2929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -2898,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -2909,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -2920,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -2931,7 +2973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -2942,7 +2984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -2953,7 +2995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -2964,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -2975,7 +3017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -2986,7 +3028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -2997,7 +3039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3008,7 +3050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3019,7 +3061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3030,7 +3072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3041,7 +3083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3052,7 +3094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3063,7 +3105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3074,7 +3116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3085,7 +3127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3096,7 +3138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3107,7 +3149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3118,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3129,7 +3171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3140,7 +3182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3151,7 +3193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3162,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3173,12 +3215,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="9"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>135</v>
       </c>
@@ -3189,7 +3231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>135</v>
       </c>
@@ -3200,7 +3242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>135</v>
       </c>
@@ -3211,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>135</v>
       </c>
@@ -3222,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>135</v>
       </c>
@@ -3233,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>135</v>
       </c>
@@ -3244,7 +3286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>135</v>
       </c>
@@ -3255,7 +3297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>135</v>
       </c>
@@ -3266,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>135</v>
       </c>
@@ -3277,7 +3319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>135</v>
       </c>
@@ -3288,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>135</v>
       </c>
@@ -3299,7 +3341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>135</v>
       </c>
@@ -3310,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>135</v>
       </c>
@@ -3321,7 +3363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>135</v>
       </c>
@@ -3332,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>135</v>
       </c>
@@ -3343,7 +3385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>135</v>
       </c>
@@ -3354,7 +3396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>135</v>
       </c>
@@ -3365,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>135</v>
       </c>
@@ -3376,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>135</v>
       </c>
@@ -3387,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>135</v>
       </c>
@@ -3398,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>135</v>
       </c>
@@ -3409,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>135</v>
       </c>
@@ -3420,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>135</v>
       </c>
@@ -3431,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>135</v>
       </c>
@@ -3442,7 +3484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>135</v>
       </c>
@@ -3453,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
         <v>135</v>
       </c>
@@ -3464,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
         <v>135</v>
       </c>
@@ -3475,7 +3517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>135</v>
       </c>
@@ -3486,7 +3528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>135</v>
       </c>
@@ -3497,7 +3539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>135</v>
       </c>
@@ -3508,7 +3550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>135</v>
       </c>
@@ -3519,7 +3561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>135</v>
       </c>
@@ -3530,7 +3572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>135</v>
       </c>
@@ -3541,7 +3583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>135</v>
       </c>
@@ -3552,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>135</v>
       </c>
@@ -3563,7 +3605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>135</v>
       </c>
@@ -3574,12 +3616,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="9"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3590,7 +3632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3601,7 +3643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3612,7 +3654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3623,7 +3665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3634,7 +3676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3645,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3656,7 +3698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3667,7 +3709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3678,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3689,7 +3731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3700,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3711,7 +3753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3722,7 +3764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3733,7 +3775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3744,7 +3786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3755,7 +3797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3766,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3777,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3788,7 +3830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3799,7 +3841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -3810,7 +3852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -3821,7 +3863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -3832,7 +3874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -3843,7 +3885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -3854,7 +3896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -3865,7 +3907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -3876,7 +3918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -3887,7 +3929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -3898,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -3909,7 +3951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -3920,7 +3962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -3931,7 +3973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -3942,7 +3984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -3953,7 +3995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -3964,17 +4006,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="10"/>
       <c r="B212" s="9"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="10"/>
       <c r="B213" s="9"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -3985,7 +4027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -3996,7 +4038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4007,7 +4049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4018,7 +4060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4029,7 +4071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4040,7 +4082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4051,7 +4093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4062,7 +4104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4073,7 +4115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4084,7 +4126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4095,7 +4137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4106,7 +4148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4117,7 +4159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4128,7 +4170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4139,7 +4181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4150,7 +4192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4161,7 +4203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4172,7 +4214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4183,7 +4225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4194,7 +4236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4205,7 +4247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4216,15 +4258,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="9"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="9"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4235,7 +4277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4246,7 +4288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4257,7 +4299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4268,7 +4310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4279,7 +4321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4290,7 +4332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4301,7 +4343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4312,7 +4354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4323,7 +4365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4334,7 +4376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4345,7 +4387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4356,7 +4398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4367,7 +4409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4378,7 +4420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4389,7 +4431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4400,7 +4442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4411,7 +4453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4422,7 +4464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4433,7 +4475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4444,7 +4486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4455,7 +4497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4466,7 +4508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4477,7 +4519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4488,7 +4530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4499,7 +4541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4510,7 +4552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4521,7 +4563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4532,7 +4574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4543,7 +4585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4554,7 +4596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4565,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4576,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4587,7 +4629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4598,7 +4640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4609,15 +4651,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="9"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="9"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4628,7 +4670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4639,7 +4681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4650,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4661,7 +4703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4672,7 +4714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4683,7 +4725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4694,7 +4736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4705,7 +4747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4716,7 +4758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4727,7 +4769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4738,7 +4780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4749,7 +4791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4760,7 +4802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4771,7 +4813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4782,7 +4824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4793,7 +4835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -4804,7 +4846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -4815,7 +4857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -4826,15 +4868,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="9"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="9"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
@@ -4845,7 +4887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -4856,7 +4898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -4867,7 +4909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -4878,7 +4920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -4889,7 +4931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -4900,7 +4942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -4911,7 +4953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -4922,7 +4964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -4933,7 +4975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -4944,7 +4986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -4955,7 +4997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -4966,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -4977,7 +5019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -4988,7 +5030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -4999,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5010,7 +5052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5021,7 +5063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5032,7 +5074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5043,7 +5085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5054,7 +5096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5065,7 +5107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5076,7 +5118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5087,7 +5129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5098,7 +5140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5109,7 +5151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5120,7 +5162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5131,7 +5173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5142,7 +5184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5153,7 +5195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5164,7 +5206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5175,7 +5217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5186,7 +5228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5197,7 +5239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5208,7 +5250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5219,7 +5261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5230,7 +5272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5241,7 +5283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5252,15 +5294,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="9"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="9"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10" t="s">
         <v>325</v>
       </c>
@@ -5271,7 +5313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10" t="s">
         <v>325</v>
       </c>
@@ -5282,7 +5324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="10" t="s">
         <v>325</v>
       </c>
@@ -5293,7 +5335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="10" t="s">
         <v>325</v>
       </c>
@@ -5304,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="10" t="s">
         <v>325</v>
       </c>
@@ -5315,7 +5357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="10" t="s">
         <v>325</v>
       </c>
@@ -5326,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="10" t="s">
         <v>325</v>
       </c>
@@ -5337,7 +5379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="10" t="s">
         <v>325</v>
       </c>
@@ -5348,7 +5390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10" t="s">
         <v>325</v>
       </c>
@@ -5359,7 +5401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="10" t="s">
         <v>325</v>
       </c>
@@ -5370,7 +5412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="10" t="s">
         <v>325</v>
       </c>
@@ -5381,7 +5423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="10" t="s">
         <v>325</v>
       </c>
@@ -5392,7 +5434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="10" t="s">
         <v>325</v>
       </c>
@@ -5403,7 +5445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="10" t="s">
         <v>325</v>
       </c>
@@ -5414,7 +5456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="10" t="s">
         <v>325</v>
       </c>
@@ -5425,7 +5467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="10" t="s">
         <v>325</v>
       </c>
@@ -5436,7 +5478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="10" t="s">
         <v>325</v>
       </c>
@@ -5447,7 +5489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="10" t="s">
         <v>325</v>
       </c>
@@ -5458,15 +5500,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B354" s="9"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B355" s="9"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="10" t="s">
         <v>344</v>
       </c>
@@ -5477,7 +5519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="10" t="s">
         <v>344</v>
       </c>
@@ -5488,7 +5530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="10" t="s">
         <v>344</v>
       </c>
@@ -5499,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="10" t="s">
         <v>344</v>
       </c>
@@ -5510,7 +5552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="10" t="s">
         <v>344</v>
       </c>
@@ -5521,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="10" t="s">
         <v>344</v>
       </c>
@@ -5532,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="10" t="s">
         <v>344</v>
       </c>
@@ -5543,7 +5585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="10" t="s">
         <v>344</v>
       </c>
@@ -5554,7 +5596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="10" t="s">
         <v>344</v>
       </c>
@@ -5565,7 +5607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="10" t="s">
         <v>344</v>
       </c>
@@ -5576,7 +5618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="10" t="s">
         <v>344</v>
       </c>
@@ -5587,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="10" t="s">
         <v>344</v>
       </c>
@@ -5598,7 +5640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="10" t="s">
         <v>344</v>
       </c>
@@ -5609,7 +5651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="10" t="s">
         <v>344</v>
       </c>
@@ -5620,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="10" t="s">
         <v>344</v>
       </c>
@@ -5631,7 +5673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="10" t="s">
         <v>344</v>
       </c>
@@ -5642,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="10" t="s">
         <v>344</v>
       </c>
@@ -5653,7 +5695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="10" t="s">
         <v>344</v>
       </c>
@@ -5664,7 +5706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="10" t="s">
         <v>344</v>
       </c>
@@ -5675,7 +5717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="10" t="s">
         <v>344</v>
       </c>
@@ -5686,7 +5728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="10" t="s">
         <v>344</v>
       </c>
@@ -5697,7 +5739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="10" t="s">
         <v>344</v>
       </c>
@@ -5708,7 +5750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="10" t="s">
         <v>344</v>
       </c>
@@ -5719,7 +5761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="10" t="s">
         <v>344</v>
       </c>
@@ -5730,7 +5772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="10" t="s">
         <v>344</v>
       </c>
@@ -5741,7 +5783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="10" t="s">
         <v>344</v>
       </c>
@@ -5752,7 +5794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="10" t="s">
         <v>344</v>
       </c>
@@ -5763,7 +5805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="10" t="s">
         <v>344</v>
       </c>
@@ -5774,7 +5816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="10" t="s">
         <v>344</v>
       </c>
@@ -5785,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="10" t="s">
         <v>344</v>
       </c>
@@ -5796,7 +5838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="10" t="s">
         <v>344</v>
       </c>
@@ -5807,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="10" t="s">
         <v>344</v>
       </c>
@@ -5818,7 +5860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="10" t="s">
         <v>344</v>
       </c>
@@ -5829,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="10" t="s">
         <v>344</v>
       </c>
@@ -5840,7 +5882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="10" t="s">
         <v>344</v>
       </c>
@@ -5851,7 +5893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="10" t="s">
         <v>344</v>
       </c>
@@ -5862,7 +5904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="10" t="s">
         <v>344</v>
       </c>
@@ -5873,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="10" t="s">
         <v>344</v>
       </c>
@@ -5884,7 +5926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="10" t="s">
         <v>344</v>
       </c>
@@ -5895,7 +5937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="10" t="s">
         <v>344</v>
       </c>
@@ -5906,7 +5948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="10" t="s">
         <v>344</v>
       </c>
@@ -5917,7 +5959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="10" t="s">
         <v>344</v>
       </c>
@@ -5928,7 +5970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="10" t="s">
         <v>344</v>
       </c>
@@ -5939,7 +5981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="10" t="s">
         <v>344</v>
       </c>
@@ -5950,15 +5992,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B400" s="9"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B401" s="9"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="10" t="s">
         <v>388</v>
       </c>
@@ -5969,7 +6011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="10" t="s">
         <v>388</v>
       </c>
@@ -5980,7 +6022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="10" t="s">
         <v>388</v>
       </c>
@@ -5991,7 +6033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="10" t="s">
         <v>388</v>
       </c>
@@ -6002,7 +6044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="10" t="s">
         <v>388</v>
       </c>
@@ -6013,7 +6055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="10" t="s">
         <v>388</v>
       </c>
@@ -6024,15 +6066,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B408" s="9"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B409" s="9"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6043,7 +6085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6054,7 +6096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6065,7 +6107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6076,7 +6118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6087,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6098,7 +6140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6109,7 +6151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6120,7 +6162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6131,7 +6173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6142,7 +6184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6153,7 +6195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6164,7 +6206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6175,7 +6217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6186,7 +6228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6197,7 +6239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6208,7 +6250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6219,7 +6261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6230,7 +6272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6241,7 +6283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6252,7 +6294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6263,7 +6305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6274,7 +6316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6285,7 +6327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6296,7 +6338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6307,7 +6349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6318,7 +6360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6329,7 +6371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6340,7 +6382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6351,7 +6393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6362,7 +6404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6373,7 +6415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6384,7 +6426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6395,7 +6437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6406,7 +6448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6417,7 +6459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6428,7 +6470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6439,7 +6481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6450,7 +6492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6461,7 +6503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6472,7 +6514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6483,7 +6525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6494,7 +6536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6505,7 +6547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6516,7 +6558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6527,7 +6569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6538,7 +6580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6549,7 +6591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6560,7 +6602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6571,7 +6613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6582,7 +6624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6593,7 +6635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6604,7 +6646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6615,7 +6657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6626,7 +6668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6637,7 +6679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6648,7 +6690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6659,7 +6701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6670,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6681,7 +6723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6692,16 +6734,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B470" s="9"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="10"/>
       <c r="B471" s="9"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6712,7 +6754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6723,7 +6765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6734,7 +6776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6745,7 +6787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6756,7 +6798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6767,7 +6809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6778,7 +6820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6789,7 +6831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -6800,7 +6842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -6811,977 +6853,975 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B6"/>
-    <hyperlink r:id="rId3" ref="B7"/>
-    <hyperlink r:id="rId4" ref="B8"/>
-    <hyperlink r:id="rId5" ref="B9"/>
-    <hyperlink r:id="rId6" ref="B10"/>
-    <hyperlink r:id="rId7" ref="B11"/>
-    <hyperlink r:id="rId8" ref="B12"/>
-    <hyperlink r:id="rId9" ref="B13"/>
-    <hyperlink r:id="rId10" ref="B14"/>
-    <hyperlink r:id="rId11" ref="B15"/>
-    <hyperlink r:id="rId12" ref="B16"/>
-    <hyperlink r:id="rId13" ref="B17"/>
-    <hyperlink r:id="rId14" ref="B18"/>
-    <hyperlink r:id="rId15" ref="B19"/>
-    <hyperlink r:id="rId16" ref="B20"/>
-    <hyperlink r:id="rId17" ref="B21"/>
-    <hyperlink r:id="rId18" ref="B22"/>
-    <hyperlink r:id="rId19" ref="B23"/>
-    <hyperlink r:id="rId20" ref="B24"/>
-    <hyperlink r:id="rId21" ref="B25"/>
-    <hyperlink r:id="rId22" ref="B26"/>
-    <hyperlink r:id="rId23" ref="B27"/>
-    <hyperlink r:id="rId24" ref="B28"/>
-    <hyperlink r:id="rId25" ref="B29"/>
-    <hyperlink r:id="rId26" ref="B30"/>
-    <hyperlink r:id="rId27" ref="B31"/>
-    <hyperlink r:id="rId28" ref="B32"/>
-    <hyperlink r:id="rId29" ref="B33"/>
-    <hyperlink r:id="rId30" ref="B34"/>
-    <hyperlink r:id="rId31" ref="B35"/>
-    <hyperlink r:id="rId32" ref="B36"/>
-    <hyperlink r:id="rId33" ref="B37"/>
-    <hyperlink r:id="rId34" ref="B38"/>
-    <hyperlink r:id="rId35" ref="B39"/>
-    <hyperlink r:id="rId36" ref="B40"/>
-    <hyperlink r:id="rId37" ref="B41"/>
-    <hyperlink r:id="rId38" ref="B44"/>
-    <hyperlink r:id="rId39" ref="B45"/>
-    <hyperlink r:id="rId40" ref="B46"/>
-    <hyperlink r:id="rId41" ref="B47"/>
-    <hyperlink r:id="rId42" ref="B48"/>
-    <hyperlink r:id="rId43" ref="B49"/>
-    <hyperlink r:id="rId44" ref="B50"/>
-    <hyperlink r:id="rId45" ref="B51"/>
-    <hyperlink r:id="rId46" ref="B52"/>
-    <hyperlink r:id="rId47" ref="B53"/>
-    <hyperlink r:id="rId48" ref="B56"/>
-    <hyperlink r:id="rId49" ref="B57"/>
-    <hyperlink r:id="rId50" ref="B58"/>
-    <hyperlink r:id="rId51" ref="B60"/>
-    <hyperlink r:id="rId52" ref="B61"/>
-    <hyperlink r:id="rId53" ref="B62"/>
-    <hyperlink r:id="rId54" ref="B63"/>
-    <hyperlink r:id="rId55" ref="B64"/>
-    <hyperlink r:id="rId56" ref="B65"/>
-    <hyperlink r:id="rId57" ref="B66"/>
-    <hyperlink r:id="rId58" ref="B67"/>
-    <hyperlink r:id="rId59" ref="B68"/>
-    <hyperlink r:id="rId60" ref="B69"/>
-    <hyperlink r:id="rId61" ref="B70"/>
-    <hyperlink r:id="rId62" ref="B71"/>
-    <hyperlink r:id="rId63" ref="B72"/>
-    <hyperlink r:id="rId64" ref="B73"/>
-    <hyperlink r:id="rId65" ref="B74"/>
-    <hyperlink r:id="rId66" ref="B75"/>
-    <hyperlink r:id="rId67" ref="B76"/>
-    <hyperlink r:id="rId68" ref="B77"/>
-    <hyperlink r:id="rId69" ref="B78"/>
-    <hyperlink r:id="rId70" ref="B79"/>
-    <hyperlink r:id="rId71" ref="B80"/>
-    <hyperlink r:id="rId72" ref="B81"/>
-    <hyperlink r:id="rId73" ref="B82"/>
-    <hyperlink r:id="rId74" ref="B83"/>
-    <hyperlink r:id="rId75" ref="B84"/>
-    <hyperlink r:id="rId76" ref="B85"/>
-    <hyperlink r:id="rId77" ref="B86"/>
-    <hyperlink r:id="rId78" ref="B87"/>
-    <hyperlink r:id="rId79" ref="B88"/>
-    <hyperlink r:id="rId80" ref="B89"/>
-    <hyperlink r:id="rId81" ref="B90"/>
-    <hyperlink r:id="rId82" ref="B91"/>
-    <hyperlink r:id="rId83" ref="B92"/>
-    <hyperlink r:id="rId84" ref="B93"/>
-    <hyperlink r:id="rId85" ref="B94"/>
-    <hyperlink r:id="rId86" ref="B95"/>
-    <hyperlink r:id="rId87" ref="B96"/>
-    <hyperlink r:id="rId88" ref="B97"/>
-    <hyperlink r:id="rId89" ref="B98"/>
-    <hyperlink r:id="rId90" ref="B101"/>
-    <hyperlink r:id="rId91" ref="B102"/>
-    <hyperlink r:id="rId92" ref="B103"/>
-    <hyperlink r:id="rId93" ref="B104"/>
-    <hyperlink r:id="rId94" ref="B105"/>
-    <hyperlink r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." ref="B106"/>
-    <hyperlink r:id="rId96" ref="B107"/>
-    <hyperlink r:id="rId97" ref="B108"/>
-    <hyperlink r:id="rId98" ref="B109"/>
-    <hyperlink r:id="rId99" ref="B110"/>
-    <hyperlink r:id="rId100" ref="B111"/>
-    <hyperlink r:id="rId101" ref="B112"/>
-    <hyperlink r:id="rId102" ref="B113"/>
-    <hyperlink r:id="rId103" ref="B114"/>
-    <hyperlink r:id="rId104" ref="B115"/>
-    <hyperlink r:id="rId105" ref="B116"/>
-    <hyperlink r:id="rId106" ref="B117"/>
-    <hyperlink r:id="rId107" ref="B118"/>
-    <hyperlink r:id="rId108" ref="B119"/>
-    <hyperlink r:id="rId109" ref="B120"/>
-    <hyperlink r:id="rId110" ref="B121"/>
-    <hyperlink r:id="rId111" ref="B122"/>
-    <hyperlink r:id="rId112" ref="B123"/>
-    <hyperlink r:id="rId113" ref="B124"/>
-    <hyperlink r:id="rId114" ref="B125"/>
-    <hyperlink r:id="rId115" ref="B126"/>
-    <hyperlink r:id="rId116" ref="B127"/>
-    <hyperlink r:id="rId117" ref="B128"/>
-    <hyperlink r:id="rId118" ref="B129"/>
-    <hyperlink r:id="rId119" ref="B130"/>
-    <hyperlink r:id="rId120" ref="B131"/>
-    <hyperlink r:id="rId121" ref="B132"/>
-    <hyperlink r:id="rId122" ref="B133"/>
-    <hyperlink r:id="rId123" ref="B134"/>
-    <hyperlink r:id="rId124" ref="B135"/>
-    <hyperlink r:id="rId125" ref="B136"/>
-    <hyperlink r:id="rId126" ref="B139"/>
-    <hyperlink r:id="rId127" ref="B140"/>
-    <hyperlink r:id="rId128" ref="B141"/>
-    <hyperlink r:id="rId129" ref="B142"/>
-    <hyperlink r:id="rId130" ref="B143"/>
-    <hyperlink r:id="rId131" ref="B144"/>
-    <hyperlink r:id="rId132" ref="B145"/>
-    <hyperlink r:id="rId133" ref="B146"/>
-    <hyperlink r:id="rId134" ref="B147"/>
-    <hyperlink r:id="rId135" ref="B148"/>
-    <hyperlink r:id="rId136" ref="B149"/>
-    <hyperlink r:id="rId137" ref="B150"/>
-    <hyperlink r:id="rId138" ref="B151"/>
-    <hyperlink r:id="rId139" ref="B152"/>
-    <hyperlink r:id="rId140" ref="B153"/>
-    <hyperlink r:id="rId141" ref="B154"/>
-    <hyperlink r:id="rId142" ref="B155"/>
-    <hyperlink r:id="rId143" ref="B156"/>
-    <hyperlink r:id="rId144" ref="B157"/>
-    <hyperlink r:id="rId145" ref="B158"/>
-    <hyperlink r:id="rId146" ref="B159"/>
-    <hyperlink r:id="rId147" ref="B160"/>
-    <hyperlink r:id="rId148" ref="B161"/>
-    <hyperlink r:id="rId149" ref="B162"/>
-    <hyperlink r:id="rId150" ref="B163"/>
-    <hyperlink r:id="rId151" ref="B166"/>
-    <hyperlink r:id="rId152" ref="B167"/>
-    <hyperlink r:id="rId153" ref="B168"/>
-    <hyperlink r:id="rId154" ref="B169"/>
-    <hyperlink r:id="rId155" ref="B170"/>
-    <hyperlink r:id="rId156" ref="B171"/>
-    <hyperlink r:id="rId157" ref="B172"/>
-    <hyperlink r:id="rId158" ref="B173"/>
-    <hyperlink r:id="rId159" ref="B174"/>
-    <hyperlink r:id="rId160" ref="B177"/>
-    <hyperlink r:id="rId161" ref="B178"/>
-    <hyperlink r:id="rId162" ref="B179"/>
-    <hyperlink r:id="rId163" ref="B180"/>
-    <hyperlink r:id="rId164" ref="B181"/>
-    <hyperlink r:id="rId165" ref="B182"/>
-    <hyperlink r:id="rId166" ref="B183"/>
-    <hyperlink r:id="rId167" ref="B184"/>
-    <hyperlink r:id="rId168" ref="B185"/>
-    <hyperlink r:id="rId169" ref="B186"/>
-    <hyperlink r:id="rId170" ref="B187"/>
-    <hyperlink r:id="rId171" ref="B188"/>
-    <hyperlink r:id="rId172" ref="B189"/>
-    <hyperlink r:id="rId173" ref="B190"/>
-    <hyperlink r:id="rId174" ref="B191"/>
-    <hyperlink r:id="rId175" ref="B192"/>
-    <hyperlink r:id="rId176" ref="B193"/>
-    <hyperlink r:id="rId177" ref="B194"/>
-    <hyperlink r:id="rId178" ref="B195"/>
-    <hyperlink r:id="rId179" ref="B196"/>
-    <hyperlink r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." ref="B197"/>
-    <hyperlink r:id="rId181" ref="B198"/>
-    <hyperlink r:id="rId182" ref="B199"/>
-    <hyperlink r:id="rId183" ref="B200"/>
-    <hyperlink r:id="rId184" ref="B201"/>
-    <hyperlink r:id="rId185" ref="B202"/>
-    <hyperlink r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." ref="B203"/>
-    <hyperlink r:id="rId187" ref="B204"/>
-    <hyperlink r:id="rId188" ref="B205"/>
-    <hyperlink r:id="rId189" ref="B206"/>
-    <hyperlink r:id="rId190" ref="B207"/>
-    <hyperlink r:id="rId191" ref="B208"/>
-    <hyperlink r:id="rId192" ref="B209"/>
-    <hyperlink r:id="rId193" ref="B210"/>
-    <hyperlink r:id="rId194" ref="B211"/>
-    <hyperlink r:id="rId195" ref="B214"/>
-    <hyperlink r:id="rId196" ref="B215"/>
-    <hyperlink r:id="rId197" ref="B216"/>
-    <hyperlink r:id="rId198" ref="B217"/>
-    <hyperlink r:id="rId199" ref="B218"/>
-    <hyperlink r:id="rId200" ref="B219"/>
-    <hyperlink r:id="rId201" ref="B220"/>
-    <hyperlink r:id="rId202" ref="B221"/>
-    <hyperlink r:id="rId203" ref="B222"/>
-    <hyperlink r:id="rId204" ref="B223"/>
-    <hyperlink r:id="rId205" ref="B224"/>
-    <hyperlink r:id="rId206" ref="B225"/>
-    <hyperlink r:id="rId207" ref="B226"/>
-    <hyperlink r:id="rId208" ref="B227"/>
-    <hyperlink r:id="rId209" ref="B228"/>
-    <hyperlink r:id="rId210" ref="B229"/>
-    <hyperlink r:id="rId211" ref="B230"/>
-    <hyperlink r:id="rId212" ref="B231"/>
-    <hyperlink r:id="rId213" ref="B232"/>
-    <hyperlink r:id="rId214" ref="B233"/>
-    <hyperlink r:id="rId215" ref="B234"/>
-    <hyperlink r:id="rId216" ref="B235"/>
-    <hyperlink r:id="rId217" ref="B238"/>
-    <hyperlink r:id="rId218" ref="B239"/>
-    <hyperlink r:id="rId219" ref="B240"/>
-    <hyperlink r:id="rId220" ref="B241"/>
-    <hyperlink r:id="rId221" ref="B242"/>
-    <hyperlink r:id="rId222" ref="B243"/>
-    <hyperlink r:id="rId223" ref="B244"/>
-    <hyperlink r:id="rId224" ref="B245"/>
-    <hyperlink r:id="rId225" ref="B246"/>
-    <hyperlink r:id="rId226" ref="B247"/>
-    <hyperlink r:id="rId227" ref="B248"/>
-    <hyperlink r:id="rId228" ref="B249"/>
-    <hyperlink r:id="rId229" ref="B250"/>
-    <hyperlink r:id="rId230" ref="B251"/>
-    <hyperlink r:id="rId231" ref="B252"/>
-    <hyperlink r:id="rId232" ref="B253"/>
-    <hyperlink r:id="rId233" ref="B254"/>
-    <hyperlink r:id="rId234" ref="B255"/>
-    <hyperlink r:id="rId235" ref="B256"/>
-    <hyperlink r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." ref="B257"/>
-    <hyperlink r:id="rId237" ref="B258"/>
-    <hyperlink r:id="rId238" ref="B259"/>
-    <hyperlink r:id="rId239" ref="B260"/>
-    <hyperlink r:id="rId240" ref="B261"/>
-    <hyperlink r:id="rId241" ref="B262"/>
-    <hyperlink r:id="rId242" ref="B263"/>
-    <hyperlink r:id="rId243" ref="B264"/>
-    <hyperlink r:id="rId244" ref="B265"/>
-    <hyperlink r:id="rId245" ref="B266"/>
-    <hyperlink r:id="rId246" ref="B267"/>
-    <hyperlink r:id="rId247" ref="B268"/>
-    <hyperlink r:id="rId248" ref="B269"/>
-    <hyperlink r:id="rId249" ref="B270"/>
-    <hyperlink r:id="rId250" ref="B271"/>
-    <hyperlink r:id="rId251" ref="B272"/>
-    <hyperlink r:id="rId252" ref="B275"/>
-    <hyperlink r:id="rId253" ref="B276"/>
-    <hyperlink r:id="rId254" ref="B277"/>
-    <hyperlink r:id="rId255" ref="B278"/>
-    <hyperlink r:id="rId256" ref="B279"/>
-    <hyperlink r:id="rId257" ref="B280"/>
-    <hyperlink r:id="rId258" ref="B281"/>
-    <hyperlink r:id="rId259" ref="B282"/>
-    <hyperlink r:id="rId260" ref="B283"/>
-    <hyperlink r:id="rId261" ref="B284"/>
-    <hyperlink r:id="rId262" ref="B285"/>
-    <hyperlink r:id="rId263" ref="B286"/>
-    <hyperlink r:id="rId264" ref="B287"/>
-    <hyperlink r:id="rId265" ref="B288"/>
-    <hyperlink r:id="rId266" ref="B289"/>
-    <hyperlink r:id="rId267" ref="B290"/>
-    <hyperlink r:id="rId268" ref="B291"/>
-    <hyperlink r:id="rId269" ref="B292"/>
-    <hyperlink r:id="rId270" ref="B293"/>
-    <hyperlink r:id="rId271" ref="B296"/>
-    <hyperlink r:id="rId272" ref="B297"/>
-    <hyperlink r:id="rId273" ref="B298"/>
-    <hyperlink r:id="rId274" ref="B299"/>
-    <hyperlink r:id="rId275" ref="B300"/>
-    <hyperlink r:id="rId276" ref="B301"/>
-    <hyperlink r:id="rId277" ref="B302"/>
-    <hyperlink r:id="rId278" ref="B303"/>
-    <hyperlink r:id="rId279" ref="B304"/>
-    <hyperlink r:id="rId280" ref="B305"/>
-    <hyperlink r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." ref="B306"/>
-    <hyperlink r:id="rId282" ref="B307"/>
-    <hyperlink r:id="rId283" ref="B308"/>
-    <hyperlink r:id="rId284" ref="B309"/>
-    <hyperlink r:id="rId285" ref="B310"/>
-    <hyperlink r:id="rId286" ref="B311"/>
-    <hyperlink r:id="rId287" ref="B312"/>
-    <hyperlink r:id="rId288" ref="B313"/>
-    <hyperlink r:id="rId289" ref="B314"/>
-    <hyperlink r:id="rId290" ref="B315"/>
-    <hyperlink r:id="rId291" ref="B316"/>
-    <hyperlink r:id="rId292" ref="B317"/>
-    <hyperlink r:id="rId293" ref="B318"/>
-    <hyperlink r:id="rId294" ref="B319"/>
-    <hyperlink r:id="rId295" ref="B320"/>
-    <hyperlink r:id="rId296" ref="B321"/>
-    <hyperlink r:id="rId297" ref="B322"/>
-    <hyperlink r:id="rId298" ref="B323"/>
-    <hyperlink r:id="rId299" ref="B324"/>
-    <hyperlink r:id="rId300" ref="B325"/>
-    <hyperlink r:id="rId301" ref="B326"/>
-    <hyperlink r:id="rId302" ref="B327"/>
-    <hyperlink r:id="rId303" ref="B328"/>
-    <hyperlink r:id="rId304" ref="B329"/>
-    <hyperlink r:id="rId305" ref="B330"/>
-    <hyperlink r:id="rId306" ref="B331"/>
-    <hyperlink r:id="rId307" ref="B332"/>
-    <hyperlink r:id="rId308" ref="B333"/>
-    <hyperlink r:id="rId309" ref="B336"/>
-    <hyperlink r:id="rId310" ref="B337"/>
-    <hyperlink r:id="rId311" ref="B338"/>
-    <hyperlink r:id="rId312" ref="B339"/>
-    <hyperlink r:id="rId313" ref="B340"/>
-    <hyperlink r:id="rId314" ref="B341"/>
-    <hyperlink r:id="rId315" ref="B342"/>
-    <hyperlink r:id="rId316" ref="B343"/>
-    <hyperlink r:id="rId317" ref="B344"/>
-    <hyperlink r:id="rId318" ref="B345"/>
-    <hyperlink r:id="rId319" ref="B346"/>
-    <hyperlink r:id="rId320" ref="B347"/>
-    <hyperlink r:id="rId321" ref="B348"/>
-    <hyperlink r:id="rId322" ref="B349"/>
-    <hyperlink r:id="rId323" ref="B350"/>
-    <hyperlink r:id="rId324" ref="B351"/>
-    <hyperlink r:id="rId325" ref="B352"/>
-    <hyperlink r:id="rId326" ref="B353"/>
-    <hyperlink r:id="rId327" ref="B356"/>
-    <hyperlink r:id="rId328" ref="B357"/>
-    <hyperlink r:id="rId329" ref="B358"/>
-    <hyperlink r:id="rId330" ref="B359"/>
-    <hyperlink r:id="rId331" ref="B360"/>
-    <hyperlink r:id="rId332" ref="B361"/>
-    <hyperlink r:id="rId333" ref="B362"/>
-    <hyperlink r:id="rId334" ref="B363"/>
-    <hyperlink r:id="rId335" ref="B364"/>
-    <hyperlink r:id="rId336" ref="B365"/>
-    <hyperlink r:id="rId337" ref="B366"/>
-    <hyperlink r:id="rId338" ref="B367"/>
-    <hyperlink r:id="rId339" ref="B368"/>
-    <hyperlink r:id="rId340" ref="B369"/>
-    <hyperlink r:id="rId341" ref="B370"/>
-    <hyperlink r:id="rId342" ref="B371"/>
-    <hyperlink r:id="rId343" ref="B372"/>
-    <hyperlink r:id="rId344" ref="B373"/>
-    <hyperlink r:id="rId345" ref="B374"/>
-    <hyperlink r:id="rId346" ref="B375"/>
-    <hyperlink r:id="rId347" ref="B376"/>
-    <hyperlink r:id="rId348" ref="B377"/>
-    <hyperlink r:id="rId349" ref="B378"/>
-    <hyperlink r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." ref="B379"/>
-    <hyperlink r:id="rId351" ref="B380"/>
-    <hyperlink r:id="rId352" ref="B381"/>
-    <hyperlink r:id="rId353" ref="B382"/>
-    <hyperlink r:id="rId354" ref="B383"/>
-    <hyperlink r:id="rId355" ref="B384"/>
-    <hyperlink r:id="rId356" ref="B385"/>
-    <hyperlink r:id="rId357" ref="B386"/>
-    <hyperlink r:id="rId358" ref="B387"/>
-    <hyperlink r:id="rId359" ref="B388"/>
-    <hyperlink r:id="rId360" ref="B389"/>
-    <hyperlink r:id="rId361" ref="B390"/>
-    <hyperlink r:id="rId362" ref="B391"/>
-    <hyperlink r:id="rId363" ref="B392"/>
-    <hyperlink r:id="rId364" ref="B393"/>
-    <hyperlink r:id="rId365" ref="B394"/>
-    <hyperlink r:id="rId366" ref="B395"/>
-    <hyperlink r:id="rId367" ref="B396"/>
-    <hyperlink r:id="rId368" ref="B397"/>
-    <hyperlink r:id="rId369" ref="B398"/>
-    <hyperlink r:id="rId370" ref="B399"/>
-    <hyperlink r:id="rId371" ref="B402"/>
-    <hyperlink r:id="rId372" ref="B403"/>
-    <hyperlink r:id="rId373" ref="B404"/>
-    <hyperlink r:id="rId374" ref="B405"/>
-    <hyperlink r:id="rId375" ref="B406"/>
-    <hyperlink r:id="rId376" ref="B407"/>
-    <hyperlink r:id="rId377" ref="B410"/>
-    <hyperlink r:id="rId378" ref="B411"/>
-    <hyperlink r:id="rId379" ref="B412"/>
-    <hyperlink r:id="rId380" ref="B413"/>
-    <hyperlink r:id="rId381" ref="B414"/>
-    <hyperlink r:id="rId382" ref="B415"/>
-    <hyperlink r:id="rId383" ref="B416"/>
-    <hyperlink r:id="rId384" ref="B417"/>
-    <hyperlink r:id="rId385" ref="B418"/>
-    <hyperlink r:id="rId386" ref="B419"/>
-    <hyperlink r:id="rId387" ref="B420"/>
-    <hyperlink r:id="rId388" ref="B421"/>
-    <hyperlink r:id="rId389" ref="B422"/>
-    <hyperlink r:id="rId390" ref="B423"/>
-    <hyperlink r:id="rId391" ref="B424"/>
-    <hyperlink r:id="rId392" ref="B425"/>
-    <hyperlink r:id="rId393" ref="B426"/>
-    <hyperlink r:id="rId394" ref="B427"/>
-    <hyperlink r:id="rId395" ref="B428"/>
-    <hyperlink r:id="rId396" ref="B429"/>
-    <hyperlink r:id="rId397" ref="B430"/>
-    <hyperlink r:id="rId398" ref="B431"/>
-    <hyperlink r:id="rId399" ref="B432"/>
-    <hyperlink r:id="rId400" ref="B433"/>
-    <hyperlink r:id="rId401" ref="B434"/>
-    <hyperlink r:id="rId402" ref="B435"/>
-    <hyperlink r:id="rId403" ref="B436"/>
-    <hyperlink r:id="rId404" ref="B437"/>
-    <hyperlink r:id="rId405" ref="B438"/>
-    <hyperlink r:id="rId406" ref="B439"/>
-    <hyperlink r:id="rId407" ref="B440"/>
-    <hyperlink r:id="rId408" ref="B441"/>
-    <hyperlink r:id="rId409" ref="B442"/>
-    <hyperlink r:id="rId410" ref="B443"/>
-    <hyperlink r:id="rId411" ref="B444"/>
-    <hyperlink r:id="rId412" ref="B445"/>
-    <hyperlink r:id="rId413" ref="B446"/>
-    <hyperlink r:id="rId414" ref="B447"/>
-    <hyperlink r:id="rId415" ref="B448"/>
-    <hyperlink r:id="rId416" ref="B449"/>
-    <hyperlink r:id="rId417" ref="B450"/>
-    <hyperlink r:id="rId418" ref="B451"/>
-    <hyperlink r:id="rId419" ref="B452"/>
-    <hyperlink r:id="rId420" ref="B453"/>
-    <hyperlink r:id="rId421" ref="B454"/>
-    <hyperlink r:id="rId422" ref="B455"/>
-    <hyperlink r:id="rId423" ref="B456"/>
-    <hyperlink r:id="rId424" ref="B457"/>
-    <hyperlink r:id="rId425" ref="B458"/>
-    <hyperlink r:id="rId426" ref="B459"/>
-    <hyperlink r:id="rId427" ref="B460"/>
-    <hyperlink r:id="rId428" ref="B461"/>
-    <hyperlink r:id="rId429" ref="B462"/>
-    <hyperlink r:id="rId430" ref="B463"/>
-    <hyperlink r:id="rId431" ref="B464"/>
-    <hyperlink r:id="rId432" ref="B465"/>
-    <hyperlink r:id="rId433" ref="B466"/>
-    <hyperlink r:id="rId434" ref="B467"/>
-    <hyperlink r:id="rId435" ref="B468"/>
-    <hyperlink r:id="rId436" ref="B469"/>
-    <hyperlink r:id="rId437" ref="B472"/>
-    <hyperlink r:id="rId438" ref="B473"/>
-    <hyperlink r:id="rId439" ref="B474"/>
-    <hyperlink r:id="rId440" ref="B475"/>
-    <hyperlink r:id="rId441" ref="B476"/>
-    <hyperlink r:id="rId442" ref="B477"/>
-    <hyperlink r:id="rId443" ref="B478"/>
-    <hyperlink r:id="rId444" ref="B479"/>
-    <hyperlink r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." ref="B480"/>
-    <hyperlink r:id="rId446" ref="B481"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId447"/>
 </worksheet>
 </file>